--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_15.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>552429.2791507374</v>
+        <v>576361.3121643836</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514381</v>
+        <v>925399.3994514376</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006066</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>241.0142888776591</v>
@@ -725,7 +725,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -747,19 +747,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>120.2963053846016</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>75.344595486762</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,64 +905,64 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H5" t="n">
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I5" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>21.77552112412367</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>115.5785074418531</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1136,16 +1136,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="E8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>100.3796369526212</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>24.31826474744572</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,28 +1257,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>103.9917919211018</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>82.96396779500064</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
         <v>241.0142888776591</v>
@@ -1412,10 +1412,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>135.4320983106454</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1464,7 +1464,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>8.583694061602047</v>
       </c>
     </row>
     <row r="13">
@@ -1546,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1570,10 +1570,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1613,22 +1613,22 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>46.03546545923013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1701,13 +1701,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>7.83710273534405</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1850,19 +1850,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,19 +1971,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>218.4443210918378</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2044,16 +2044,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2087,16 +2087,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2135,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,25 +2208,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>90.0851035971169</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2321,19 +2321,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E23" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>212.2853856434422</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2381,10 +2381,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,16 +2394,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>98.38353541244602</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2460,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>33.95773092957197</v>
       </c>
     </row>
     <row r="25">
@@ -2527,13 +2527,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2561,22 +2561,22 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2609,19 +2609,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
     </row>
     <row r="27">
@@ -2631,31 +2631,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>7.837102735343828</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2688,19 +2688,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>89.89109712599216</v>
       </c>
     </row>
     <row r="28">
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,22 +2789,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2849,16 +2849,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,13 +2868,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>82.37559015745698</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,19 +2919,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>158.6286145959843</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.30348359856706</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3029,16 +3029,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>3.265316057196862</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,13 +3071,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3114,19 +3114,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>132.1946129538654</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,16 +3156,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>58.10865465658553</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,10 +3266,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3308,22 +3308,22 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>202.2946864288972</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3345,22 +3345,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>41.4174622184891</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,13 +3393,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>137.0062620734511</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3430,52 +3430,52 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3509,16 +3509,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,16 +3554,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3579,19 +3579,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>66.5935893841755</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3630,25 +3630,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3670,10 +3670,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3825,10 +3825,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3864,22 +3864,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>96.52468151912569</v>
+        <v>139.981559544149</v>
       </c>
       <c r="W42" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4022,16 +4022,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.33470701581992</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4040,10 +4040,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4068,13 +4068,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,22 +4101,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>129.3969870666633</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>4.58054909471631</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="E2" t="n">
         <v>19.28114311021272</v>
@@ -4352,28 +4352,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V2" t="n">
-        <v>720.6083788665362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W2" t="n">
-        <v>477.1596022224361</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="X2" t="n">
-        <v>233.7108255783361</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>279.5233881080029</v>
+        <v>186.4405569126723</v>
       </c>
       <c r="C3" t="n">
-        <v>279.5233881080029</v>
+        <v>186.4405569126723</v>
       </c>
       <c r="D3" t="n">
-        <v>279.5233881080029</v>
+        <v>186.4405569126723</v>
       </c>
       <c r="E3" t="n">
-        <v>279.5233881080029</v>
+        <v>186.4405569126723</v>
       </c>
       <c r="F3" t="n">
-        <v>158.0119685275972</v>
+        <v>186.4405569126723</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>186.4405569126723</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U3" t="n">
-        <v>487.2836868729568</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V3" t="n">
-        <v>487.2836868729568</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W3" t="n">
-        <v>487.2836868729568</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="X3" t="n">
-        <v>487.2836868729568</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="Y3" t="n">
-        <v>279.5233881080029</v>
+        <v>354.6558939327403</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
         <v>41.77557929797318</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>720.6083788665362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C5" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4604,13 +4604,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4659,37 +4659,37 @@
         <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>840.8921501805687</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>638.7055555393347</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>638.7055555393347</v>
       </c>
       <c r="V6" t="n">
-        <v>847.3111883976533</v>
+        <v>638.7055555393347</v>
       </c>
       <c r="W6" t="n">
-        <v>603.8624117535533</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="X6" t="n">
-        <v>396.0109115480204</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y6" t="n">
-        <v>188.2506127830665</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="7">
@@ -4720,10 +4720,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>274.7999090013961</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C8" t="n">
-        <v>274.7999090013961</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D8" t="n">
-        <v>274.7999090013961</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E8" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F8" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>376.1934816808115</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>274.7999090013961</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>274.7999090013961</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>274.7999090013961</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>274.7999090013961</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.7999090013961</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>219.0522088294242</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>44.59917954829714</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>44.59917954829714</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>44.59917954829714</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>44.59917954829714</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>44.59917954829714</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>44.59917954829714</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4887,46 +4887,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>360.2295980564601</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V9" t="n">
-        <v>125.0774898247174</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W9" t="n">
-        <v>20.03527576299844</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="X9" t="n">
-        <v>20.03527576299844</v>
+        <v>426.8125075943781</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>219.0522088294242</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>802.5825927271064</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="C11" t="n">
-        <v>802.5825927271064</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="D11" t="n">
-        <v>802.5825927271064</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="E11" t="n">
-        <v>802.5825927271064</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F11" t="n">
         <v>718.7806050553886</v>
@@ -5060,31 +5060,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S11" t="n">
-        <v>802.5825927271064</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T11" t="n">
-        <v>802.5825927271064</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U11" t="n">
-        <v>802.5825927271064</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V11" t="n">
-        <v>802.5825927271064</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W11" t="n">
-        <v>802.5825927271064</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X11" t="n">
-        <v>802.5825927271064</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y11" t="n">
-        <v>802.5825927271064</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>862.8876260635219</v>
+        <v>787.171420448546</v>
       </c>
       <c r="C12" t="n">
-        <v>726.0875267598396</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D12" t="n">
-        <v>577.1531170985884</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E12" t="n">
-        <v>417.9156620931329</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F12" t="n">
-        <v>271.3811041200179</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G12" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
         <v>19.28114311021272</v>
@@ -5121,19 +5121,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N12" t="n">
-        <v>613.2059550252818</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O12" t="n">
-        <v>851.8101010141643</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P12" t="n">
         <v>964.0571555106362</v>
@@ -5142,28 +5142,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y12" t="n">
-        <v>862.8876260635219</v>
+        <v>955.386757468614</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C13" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D13" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E13" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F13" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G13" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H13" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I13" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J13" t="n">
         <v>41.77557929797318</v>
@@ -5218,31 +5218,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R13" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S13" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T13" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U13" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V13" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W13" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X13" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.057155510636</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C14" t="n">
-        <v>964.057155510636</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D14" t="n">
-        <v>964.057155510636</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E14" t="n">
-        <v>962.2293816994884</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="F14" t="n">
-        <v>718.7806050553884</v>
+        <v>710.516763498309</v>
       </c>
       <c r="G14" t="n">
-        <v>475.3318284112884</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H14" t="n">
-        <v>231.8830517671884</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5288,40 +5288,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>725.2021500759371</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>874.3971002185851</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.057155510636</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.057155510636</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>964.057155510636</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T14" t="n">
-        <v>964.057155510636</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U14" t="n">
-        <v>964.057155510636</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V14" t="n">
-        <v>964.057155510636</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W14" t="n">
-        <v>964.057155510636</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X14" t="n">
-        <v>964.057155510636</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.057155510636</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>862.8876260635217</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C15" t="n">
-        <v>816.3871559026832</v>
+        <v>621.3887892094411</v>
       </c>
       <c r="D15" t="n">
-        <v>667.4527462414319</v>
+        <v>472.4543795481899</v>
       </c>
       <c r="E15" t="n">
-        <v>508.2152912359765</v>
+        <v>313.2169245427344</v>
       </c>
       <c r="F15" t="n">
-        <v>361.6807332628614</v>
+        <v>166.6823665696193</v>
       </c>
       <c r="G15" t="n">
-        <v>222.9499078454769</v>
+        <v>27.95154115223485</v>
       </c>
       <c r="H15" t="n">
-        <v>109.5807722530562</v>
+        <v>27.95154115223485</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5361,46 +5361,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>19.28114311021272</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M15" t="n">
-        <v>234.8108274061909</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N15" t="n">
-        <v>473.4149733950733</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O15" t="n">
-        <v>712.0191193839557</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973067</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635217</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>862.8876260635217</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>862.8876260635217</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>862.8876260635217</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>862.8876260635217</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>862.8876260635217</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X15" t="n">
-        <v>862.8876260635217</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y15" t="n">
-        <v>862.8876260635217</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5452,34 +5452,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>953.9655401424089</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="C17" t="n">
-        <v>953.9655401424089</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="D17" t="n">
-        <v>953.9655401424089</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="E17" t="n">
-        <v>749.6274730425127</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F17" t="n">
-        <v>506.1786963984127</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G17" t="n">
-        <v>262.7299197543127</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5525,40 +5525,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>725.2021500759371</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>874.3971002185851</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424089</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="R17" t="n">
-        <v>953.9655401424089</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S17" t="n">
-        <v>953.9655401424089</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T17" t="n">
-        <v>953.9655401424089</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U17" t="n">
-        <v>953.9655401424089</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V17" t="n">
-        <v>953.9655401424089</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W17" t="n">
-        <v>953.9655401424089</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X17" t="n">
-        <v>953.9655401424089</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y17" t="n">
-        <v>953.9655401424089</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
         <v>19.28114311021272</v>
@@ -5598,46 +5598,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363992</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252816</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>613.2059550252816</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.0191193839557</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973067</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>790.6398109613049</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T18" t="n">
-        <v>588.4532163200709</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U18" t="n">
-        <v>367.8023869343761</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V18" t="n">
-        <v>132.6502787026334</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W18" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5692,13 +5692,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5762,40 +5762,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N20" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O20" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P20" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>749.6274730425127</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>749.6274730425127</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>502.6601697108322</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>328.2071404297052</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,46 +5835,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="N21" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950733</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.0191193839557</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="Q21" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S21" t="n">
-        <v>873.0621013721343</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T21" t="n">
-        <v>670.8755067309003</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U21" t="n">
-        <v>670.8755067309003</v>
+        <v>913.4938269565421</v>
       </c>
       <c r="V21" t="n">
-        <v>670.8755067309003</v>
+        <v>678.3417187247994</v>
       </c>
       <c r="W21" t="n">
-        <v>670.8755067309003</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X21" t="n">
-        <v>670.8755067309003</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y21" t="n">
-        <v>670.8755067309003</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224362</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783362</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783362</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6017,22 +6017,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>20.03527576299844</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C24" t="n">
-        <v>20.03527576299844</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299844</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6075,43 +6075,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q24" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>790.6398109613049</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>790.6398109613049</v>
       </c>
       <c r="U24" t="n">
-        <v>562.4161926976942</v>
+        <v>790.6398109613049</v>
       </c>
       <c r="V24" t="n">
-        <v>327.2640844659515</v>
+        <v>555.4877027295622</v>
       </c>
       <c r="W24" t="n">
-        <v>327.2640844659515</v>
+        <v>555.4877027295622</v>
       </c>
       <c r="X24" t="n">
-        <v>119.4125842604187</v>
+        <v>555.4877027295622</v>
       </c>
       <c r="Y24" t="n">
-        <v>119.4125842604187</v>
+        <v>521.1869644168632</v>
       </c>
     </row>
     <row r="25">
@@ -6175,10 +6175,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
         <v>19.28114311021272</v>
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>964.057155510636</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C26" t="n">
-        <v>964.057155510636</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D26" t="n">
-        <v>964.057155510636</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E26" t="n">
-        <v>720.608378866536</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F26" t="n">
-        <v>477.159602222436</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G26" t="n">
-        <v>233.710825578336</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6233,43 +6233,43 @@
         <v>302.3720006057937</v>
       </c>
       <c r="M26" t="n">
-        <v>519.3476278686976</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N26" t="n">
-        <v>725.202150075937</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O26" t="n">
-        <v>874.397100218585</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P26" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>964.057155510636</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V26" t="n">
-        <v>964.057155510636</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W26" t="n">
-        <v>964.057155510636</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X26" t="n">
-        <v>964.057155510636</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y26" t="n">
-        <v>964.057155510636</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>795.8418184905679</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C27" t="n">
-        <v>621.3887892094409</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>472.4543795481896</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>313.2169245427341</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>166.6823665696191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>27.95154115223463</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>27.95154115223463</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>249.2442489785619</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N27" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>726.4525409563266</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>909.0960185696774</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>964.057155510636</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>964.057155510636</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W27" t="n">
-        <v>964.057155510636</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X27" t="n">
-        <v>964.057155510636</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="Y27" t="n">
-        <v>964.057155510636</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>233.710825578336</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C29" t="n">
-        <v>233.710825578336</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="D29" t="n">
-        <v>233.710825578336</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6473,40 +6473,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N29" t="n">
-        <v>725.2021500759371</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O29" t="n">
-        <v>874.3971002185851</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P29" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>720.608378866536</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>477.159602222436</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>477.159602222436</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>233.710825578336</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>277.6959718698396</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>103.2429425887126</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,46 +6546,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363992</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363992</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N30" t="n">
-        <v>613.2059550252816</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O30" t="n">
-        <v>712.0191193839557</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973067</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613049</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>790.6398109613049</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>630.4088871269773</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>395.2567788952347</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W30" t="n">
-        <v>395.2567788952347</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X30" t="n">
-        <v>395.2567788952347</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y30" t="n">
-        <v>187.4964801302808</v>
+        <v>277.6959718698396</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203653</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203653</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203653</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203653</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203653</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203653</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203653</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203653</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203653</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280782</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203004</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757367</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>961.3082254751748</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q31" t="n">
-        <v>874.2758585542714</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R31" t="n">
-        <v>829.5248650203653</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S31" t="n">
-        <v>829.5248650203653</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T31" t="n">
-        <v>829.5248650203653</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U31" t="n">
-        <v>829.5248650203653</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203653</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203653</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203653</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203653</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>509.4769954460863</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C32" t="n">
-        <v>266.0282188019863</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D32" t="n">
-        <v>22.57944215788632</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E32" t="n">
-        <v>22.57944215788632</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>22.57944215788632</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>22.57944215788632</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>22.57944215788632</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>22.57944215788632</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T32" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U32" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V32" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W32" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X32" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y32" t="n">
-        <v>509.4769954460863</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>327.2640844659513</v>
+        <v>703.1749501051744</v>
       </c>
       <c r="C33" t="n">
-        <v>152.8110551848243</v>
+        <v>528.7219208240474</v>
       </c>
       <c r="D33" t="n">
-        <v>152.8110551848243</v>
+        <v>528.7219208240474</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>369.484465818592</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6783,46 +6783,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217535</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>964.057155510636</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.057155510636</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613049</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613049</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>562.416192697694</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V33" t="n">
-        <v>327.2640844659513</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W33" t="n">
-        <v>327.2640844659513</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X33" t="n">
-        <v>327.2640844659513</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y33" t="n">
-        <v>327.2640844659513</v>
+        <v>703.1749501051744</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543127</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6947,40 +6947,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N35" t="n">
-        <v>725.2021500759371</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O35" t="n">
-        <v>874.3971002185851</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P35" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>749.6274730425127</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T35" t="n">
-        <v>749.6274730425127</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U35" t="n">
-        <v>506.1786963984127</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V35" t="n">
-        <v>262.7299197543127</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W35" t="n">
-        <v>262.7299197543127</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543127</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543127</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>795.8418184905679</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>621.3887892094409</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>472.4543795481896</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>313.2169245427341</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7023,43 +7023,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328711</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217535</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.057155510636</v>
+        <v>825.6669918000796</v>
       </c>
       <c r="T36" t="n">
-        <v>964.057155510636</v>
+        <v>623.4803971588456</v>
       </c>
       <c r="U36" t="n">
-        <v>964.057155510636</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="V36" t="n">
-        <v>964.057155510636</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="W36" t="n">
-        <v>964.057155510636</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="X36" t="n">
-        <v>964.057155510636</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y36" t="n">
-        <v>964.057155510636</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.057155510636</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>964.057155510636</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>964.057155510636</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280782</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203004</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757367</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.057155510636</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>964.057155510636</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>964.057155510636</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>964.057155510636</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>964.057155510636</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.057155510636</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7190,34 +7190,34 @@
         <v>874.3971002185853</v>
       </c>
       <c r="P38" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>749.6274730425127</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U38" t="n">
-        <v>506.1786963984127</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V38" t="n">
-        <v>262.7299197543127</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W38" t="n">
-        <v>19.28114311021272</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X38" t="n">
-        <v>19.28114311021272</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.28114311021272</v>
+        <v>738.7078125165641</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>420.2378793000028</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C39" t="n">
-        <v>245.7848500188758</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="D39" t="n">
-        <v>178.5185981156682</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="F39" t="n">
         <v>19.28114311021272</v>
@@ -7254,49 +7254,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363992</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>473.4149733950733</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950733</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.0191193839557</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973067</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613049</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>588.4532163200709</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>588.4532163200709</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>588.4532163200709</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W39" t="n">
-        <v>588.4532163200709</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X39" t="n">
-        <v>588.4532163200709</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y39" t="n">
-        <v>588.4532163200709</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>710.5167634983089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C41" t="n">
-        <v>467.0679868542089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D41" t="n">
-        <v>467.0679868542089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543127</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543127</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>262.7299197543127</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7412,49 +7412,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>122.2961490211349</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>302.3720006057935</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>519.3476278686976</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>725.202150075937</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>874.397100218585</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>710.5167634983089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>710.5167634983089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>710.5167634983089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y41" t="n">
-        <v>710.5167634983089</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F42" t="n">
         <v>19.28114311021272</v>
@@ -7491,49 +7491,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N42" t="n">
-        <v>542.8095319084027</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972852</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.057155510636</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613049</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>588.4532163200709</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U42" t="n">
-        <v>360.2295980564599</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V42" t="n">
-        <v>262.7299197543127</v>
+        <v>493.2684931088513</v>
       </c>
       <c r="W42" t="n">
-        <v>19.28114311021272</v>
+        <v>493.2684931088513</v>
       </c>
       <c r="X42" t="n">
-        <v>19.28114311021272</v>
+        <v>493.2684931088513</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>493.2684931088513</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280782</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203004</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757367</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>964.057155510636</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>964.057155510636</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>964.057155510636</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>964.057155510636</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E44" t="n">
         <v>19.28114311021272</v>
@@ -7649,49 +7649,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>122.2961490211349</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>302.3720006057935</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>519.3476278686976</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>725.202150075937</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>874.397100218585</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>812.6742080953333</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>731.5280393924849</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>506.1786963984127</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>262.7299197543127</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>262.7299197543127</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W44" t="n">
-        <v>262.7299197543127</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X44" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y44" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I45" t="n">
         <v>19.28114311021272</v>
@@ -7728,49 +7728,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>257.8852890990951</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N45" t="n">
-        <v>496.4894350879775</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>712.0191193839557</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973067</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635217</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>689.4702815141906</v>
+        <v>833.3531281705723</v>
       </c>
       <c r="T45" t="n">
-        <v>487.2836868729566</v>
+        <v>833.3531281705723</v>
       </c>
       <c r="U45" t="n">
-        <v>259.0600686093456</v>
+        <v>605.1295099069614</v>
       </c>
       <c r="V45" t="n">
-        <v>23.90796037760293</v>
+        <v>605.1295099069614</v>
       </c>
       <c r="W45" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="X45" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>829.5248650203653</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203653</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203653</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203653</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203653</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280782</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203004</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757367</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>829.5248650203653</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.5248650203653</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>197.6503338623806</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8307,13 +8307,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>185.8815939223662</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,13 +8535,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,22 +8769,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P12" t="n">
-        <v>247.3552705420797</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9009,22 +9009,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M15" t="n">
-        <v>359.8407857361377</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9249,19 +9249,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996773</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O18" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,19 +9486,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133071</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,13 +9723,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236954</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928323</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>195.4980740263837</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,19 +10194,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10431,22 +10431,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996773</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>371.3463732493022</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10671,13 +10671,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>382.1386950879872</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10838,7 +10838,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714824</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>241.9453110519922</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11139,19 +11139,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996773</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>186.8580120236954</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221034</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11376,19 +11376,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996773</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>360.3029962585638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22553,7 +22553,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>287.5198830785557</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22592,10 +22592,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22604,7 +22604,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>108.226679839754</v>
@@ -22613,7 +22613,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,7 +22623,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22635,19 +22635,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>24.77290700878225</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>36.89084874973446</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,16 +22671,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22723,10 +22723,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22744,13 +22744,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,10 +22781,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22793,16 +22793,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>405.0665496686753</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22844,13 +22844,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22884,7 +22884,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,25 +22908,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>149.9076499797142</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>117.2220797075721</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22960,13 +22960,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23024,16 +23024,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E8" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23042,7 +23042,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,19 +23063,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>150.9660159552153</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23100,7 +23100,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23118,7 +23118,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>65.07836810396935</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,28 +23145,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>147.7031912398178</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23197,13 +23197,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,7 +23218,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -23230,7 +23230,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23267,7 +23267,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>323.9120779467108</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
         <v>174.288448637476</v>
@@ -23300,10 +23300,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>8.181203141508671</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23334,10 +23334,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>37.27640067767032</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23352,7 +23352,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23382,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23403,7 +23403,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>197.0990017157023</v>
       </c>
     </row>
     <row r="13">
@@ -23434,10 +23434,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,10 +23458,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23501,22 +23501,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>174.2884486374761</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810815</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>20.13049249612121</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,7 +23537,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23571,10 +23571,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>126.6730335290856</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23589,13 +23589,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>81.55953011607103</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23738,19 +23738,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>179.6356836433646</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>174.2884486374761</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810815</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23774,7 +23774,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>8.181203141508671</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23826,7 +23826,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -23859,19 +23859,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>7.497060989137026</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23932,16 +23932,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23975,7 +23975,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>140.9160811946028</v>
       </c>
       <c r="F20" t="n">
         <v>165.8617568640524</v>
@@ -23984,7 +23984,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810815</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24023,10 +24023,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>49.05096647893927</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24069,7 +24069,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,25 +24096,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>81.59806750672092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24209,19 +24209,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.668752743024</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>140.9160811946028</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>127.1894164723249</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24257,7 +24257,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24269,10 +24269,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,16 +24282,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>68.14964823742132</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24306,7 +24306,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24339,7 +24339,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24348,10 +24348,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>171.7249648477324</v>
       </c>
     </row>
     <row r="25">
@@ -24415,13 +24415,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24449,22 +24449,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946028</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.2884486374761</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>127.1894164723251</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24497,19 +24497,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>185.901842367224</v>
       </c>
     </row>
     <row r="27">
@@ -24519,31 +24519,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>81.55953011607124</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24576,19 +24576,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>115.7915986513122</v>
       </c>
     </row>
     <row r="28">
@@ -24649,7 +24649,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24658,7 +24658,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24677,22 +24677,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>182.3977453746509</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
-        <v>169.6449844288198</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24701,7 +24701,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24737,16 +24737,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247591</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783946</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,13 +24756,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>65.06947540718177</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24780,7 +24780,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,19 +24807,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>67.31276748499056</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24862,7 +24862,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>132.9899077786024</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24917,16 +24917,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933486</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
-        <v>113.668752743024</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>329.5048015845142</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24938,7 +24938,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>8.683973297415655</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,13 +24959,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783946</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -25002,19 +25002,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>25.45046750153554</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25044,16 +25044,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25062,7 +25062,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>147.5740411207188</v>
       </c>
     </row>
     <row r="34">
@@ -25123,7 +25123,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="35">
@@ -25154,10 +25154,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933486</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25169,7 +25169,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>318.2910467450428</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25196,22 +25196,22 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>6.725383157348119</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>10.3313640301775</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247591</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25233,22 +25233,22 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>103.6517501748948</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25281,13 +25281,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>34.67690903038675</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25299,7 +25299,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25318,7 +25318,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25363,7 +25363,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25397,16 +25397,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>109.2709771587974</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25442,16 +25442,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>10.3313640301775</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247591</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25467,19 +25467,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>80.85147618046325</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>95.01151712483079</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25518,25 +25518,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25558,10 +25558,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25625,25 +25625,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933486</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
-        <v>179.6356836433646</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810815</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25685,7 +25685,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247591</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25713,10 +25713,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25752,22 +25752,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>136.2759056302996</v>
+        <v>92.81902760527623</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326061</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25840,7 +25840,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25871,7 +25871,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25910,16 +25910,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>128.6853625704254</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>10.3313640301775</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25931,7 +25931,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25956,13 +25956,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -25989,22 +25989,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>42.28618403717454</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>247.1144340662033</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26035,7 +26035,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26086,7 +26086,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>473677.0066044412</v>
+        <v>473677.0066044413</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>473677.0066044412</v>
+        <v>473677.0066044413</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>473677.0066044413</v>
+        <v>473677.0066044412</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>473677.0066044413</v>
+        <v>473677.0066044412</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>473677.006604441</v>
+        <v>473677.0066044412</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>473677.0066044413</v>
+        <v>473677.0066044412</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>473677.0066044412</v>
+        <v>473677.0066044413</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>473677.0066044412</v>
+        <v>473677.0066044413</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>473677.006604441</v>
+        <v>473677.0066044412</v>
       </c>
     </row>
   </sheetData>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910621</v>
+        <v>63059.94259910625</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="F4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="G4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="P4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-24205.28078224307</v>
+        <v>-21344.88553779095</v>
       </c>
       <c r="C6" t="n">
-        <v>56564.15074930464</v>
+        <v>59424.54599375681</v>
       </c>
       <c r="D6" t="n">
-        <v>56564.15074930466</v>
+        <v>59424.54599375679</v>
       </c>
       <c r="E6" t="n">
-        <v>90191.75074930461</v>
+        <v>93052.14599375679</v>
       </c>
       <c r="F6" t="n">
-        <v>90191.7507493046</v>
+        <v>93052.14599375677</v>
       </c>
       <c r="G6" t="n">
-        <v>90191.75074930463</v>
+        <v>93052.14599375677</v>
       </c>
       <c r="H6" t="n">
-        <v>90191.75074930463</v>
+        <v>93052.14599375677</v>
       </c>
       <c r="I6" t="n">
-        <v>90191.75074930464</v>
+        <v>93052.1459937568</v>
       </c>
       <c r="J6" t="n">
-        <v>27131.80815019842</v>
+        <v>29992.20339465051</v>
       </c>
       <c r="K6" t="n">
-        <v>90191.75074930461</v>
+        <v>93052.14599375683</v>
       </c>
       <c r="L6" t="n">
-        <v>90191.75074930467</v>
+        <v>93052.14599375679</v>
       </c>
       <c r="M6" t="n">
-        <v>90191.7507493046</v>
+        <v>93052.14599375676</v>
       </c>
       <c r="N6" t="n">
-        <v>90191.75074930461</v>
+        <v>93052.1459937568</v>
       </c>
       <c r="O6" t="n">
-        <v>90191.75074930463</v>
+        <v>93052.14599375676</v>
       </c>
       <c r="P6" t="n">
-        <v>90191.75074930461</v>
+        <v>93052.14599375677</v>
       </c>
     </row>
   </sheetData>
@@ -26799,37 +26799,37 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="G4" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="H4" t="n">
         <v>241.014288877659</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>241.014288877659</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="J4" t="n">
-        <v>241.014288877659</v>
-      </c>
-      <c r="K4" t="n">
-        <v>241.014288877659</v>
-      </c>
       <c r="L4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="M4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34708,7 +34708,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34778,13 +34778,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>55.51629994036225</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34796,7 +34796,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>43.28534947792182</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,13 +35255,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35270,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P12" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M15" t="n">
-        <v>217.7067518141194</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35969,19 +35969,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O18" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,19 +36206,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997385</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,13 +36443,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>55.51629994036225</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036207</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36601,7 +36601,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M26" t="n">
-        <v>219.1673002655595</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N26" t="n">
         <v>207.9338608153932</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N27" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>55.51629994036219</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,19 +36914,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37151,22 +37151,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M33" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>240.0046611659689</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37391,13 +37391,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>240.0046611659689</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.014288877659</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O36" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
-        <v>90.56571241621288</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>99.81127712997385</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O39" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.055561526184</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37859,19 +37859,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>55.51629994036207</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38017,7 +38017,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.055561526184</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
@@ -38096,19 +38096,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.014288877659</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N45" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>217.7067518141194</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
